--- a/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c5-m29-0.9-memory-fraction-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c5-m29-0.9-memory-fraction-no-cache.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="part-00000-e5258123-271e-4afa-9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -149,11 +149,41 @@
   <si>
     <t>file:///opt/bitnami/spark/spark_data/spark-bench-test/kmeans-data-g2-3.parquet</t>
   </si>
+  <si>
+    <t>percentile95-exp (ns)</t>
+  </si>
+  <si>
+    <t>deviation-exp (ns)</t>
+  </si>
+  <si>
+    <t>perc-warmup  (ns)</t>
+  </si>
+  <si>
+    <t>deviation-run (ns)</t>
+  </si>
+  <si>
+    <t>Total time (ms)</t>
+  </si>
+  <si>
+    <t>Totaltime (minutes)</t>
+  </si>
+  <si>
+    <t>Total time (seconds)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,8 +661,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -906,11 +938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-428856272"/>
-        <c:axId val="-428862256"/>
+        <c:axId val="1630723680"/>
+        <c:axId val="1630725856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-428856272"/>
+        <c:axId val="1630723680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,12 +998,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428862256"/>
+        <c:crossAx val="1630725856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-428862256"/>
+        <c:axId val="1630725856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-428856272"/>
+        <c:crossAx val="1630723680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1931,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+      <selection activeCell="A42" sqref="A42:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4979,6 +5011,156 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C5,C4),0.95)</f>
+        <v>3114507073.5999985</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42">
+        <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>815537617.79999995</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>166411533.30000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVEDEV(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
+        <v>842708841.05000007</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="H43">
+        <f>AVEDEV(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>832097738.57999992</v>
+      </c>
+      <c r="K43">
+        <f>AVEDEV(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>49376233.550000012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1">
+        <f>PERCENTILE((C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6),0.95)</f>
+        <v>23478620567.399998</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44">
+        <f>AVERAGE(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>16943870648.9</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>57752880.950000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1">
+        <f>AVEDEV(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
+        <v>8037221445.2099972</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="H45">
+        <f>AVEDEV(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>8027885745.8400021</v>
+      </c>
+      <c r="K45">
+        <f>AVEDEV(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>38770014.945000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <f>B41-B2</f>
+        <v>698903</v>
+      </c>
+      <c r="C46" s="1">
+        <f>SUM(C2:C40)/1000000</f>
+        <v>359321.53520699998</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="H46">
+        <f>SUM(H2:H41)</f>
+        <v>355188165334</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K2:K41)</f>
+        <v>4483288285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <f>B46/1000/60</f>
+        <v>11.648383333333333</v>
+      </c>
+      <c r="C47">
+        <f>C46/1000/60</f>
+        <v>5.9886922534499991</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="H47">
+        <f>H46/1000/60</f>
+        <v>5919802.7555666668</v>
+      </c>
+      <c r="K47">
+        <f>K46/1000/60</f>
+        <v>74721.471416666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <f>B47*60</f>
+        <v>698.90300000000002</v>
+      </c>
+      <c r="C48">
+        <f>C47*60</f>
+        <v>359.32153520699995</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <f>C42/1000/1000/1000</f>
+        <v>3.1145070735999982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <f>C44/1000/1000/1000</f>
+        <v>23.478620567399997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
